--- a/documents/Schedule.xlsx
+++ b/documents/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\All\Projects\Codename-fluency\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36DC9E1B-CABC-41B6-BCE0-4C30A23BAE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70CEE96-EEE4-4969-B622-1E6C99ADFBB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{4B736A66-7E6A-4CF5-8B19-0BD2EC84C9C9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>Initial planning</t>
   </si>
@@ -92,6 +92,24 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>Metaplanning</t>
+  </si>
+  <si>
+    <t>Character</t>
+  </si>
+  <si>
+    <t>Infinite scrolling</t>
+  </si>
+  <si>
+    <t>pre</t>
+  </si>
+  <si>
+    <t>explore</t>
+  </si>
+  <si>
+    <t>exploit</t>
   </si>
 </sst>
 </file>
@@ -114,7 +132,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,8 +157,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -211,11 +265,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -228,6 +313,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C45F37-D943-41F2-BC3F-E5383A0D24C1}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -553,7 +648,7 @@
     <col min="1" max="1" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -579,41 +674,41 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="6"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -621,14 +716,14 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -639,7 +734,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
@@ -665,7 +760,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
@@ -676,7 +771,163 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2</v>
+      </c>
+      <c r="E13" s="5">
+        <v>3</v>
+      </c>
+      <c r="F13" s="5">
+        <v>4</v>
+      </c>
+      <c r="G13" s="5">
+        <v>5</v>
+      </c>
+      <c r="H13" s="5">
+        <v>6</v>
+      </c>
+      <c r="I13" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="19"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="13"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documents/Schedule.xlsx
+++ b/documents/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\All\Projects\Codename-fluency\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70CEE96-EEE4-4969-B622-1E6C99ADFBB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC799EE5-3C15-43F6-943E-6023167F4CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{4B736A66-7E6A-4CF5-8B19-0BD2EC84C9C9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="30">
   <si>
     <t>Initial planning</t>
   </si>
@@ -110,13 +110,28 @@
   </si>
   <si>
     <t>exploit</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Wheel Challenges</t>
+  </si>
+  <si>
+    <t>Surrounding Challenges</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +142,44 @@
     <font>
       <sz val="11"/>
       <color theme="9" tint="0.59999389629810485"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -194,7 +247,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -296,11 +349,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -317,12 +405,58 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,18 +771,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C45F37-D943-41F2-BC3F-E5383A0D24C1}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" customWidth="1"/>
+    <col min="12" max="12" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -674,41 +810,41 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="6"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -716,14 +852,14 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -734,7 +870,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
@@ -760,7 +896,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
@@ -771,8 +907,8 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="5">
@@ -796,34 +932,90 @@
       <c r="H13" s="5">
         <v>6</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="34">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17" t="s">
+      <c r="L13" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0</v>
+      </c>
+      <c r="N13" s="5">
+        <v>1</v>
+      </c>
+      <c r="O13" s="5">
+        <v>2</v>
+      </c>
+      <c r="P13" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>4</v>
+      </c>
+      <c r="R13" s="5">
+        <v>5</v>
+      </c>
+      <c r="S13" s="5">
+        <v>6</v>
+      </c>
+      <c r="T13" s="34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19" t="s">
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="19"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I14" s="35"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="13"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I15" s="36"/>
+      <c r="L15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="38"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>1</v>
       </c>
@@ -832,59 +1024,225 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I16" s="36"/>
+      <c r="L16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M16" s="9"/>
+      <c r="N16" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="O16" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="P16" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q16" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="R16" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="S16" s="9"/>
+      <c r="T16" s="38"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I17" s="36"/>
+      <c r="L17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="9"/>
+      <c r="N17" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="P17" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="38"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I18" s="36"/>
+      <c r="L18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" s="9"/>
+      <c r="N18" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="P18" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q18" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="R18" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="S18" s="25"/>
+      <c r="T18" s="40"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I19" s="36"/>
+      <c r="L19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="P19" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q19" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="R19" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="S19" s="9"/>
+      <c r="T19" s="38"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I20" s="36"/>
+      <c r="L20" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q20" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="R20" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="S20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T20" s="38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I21" s="36"/>
+      <c r="L21" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q21" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="R21" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T21" s="38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I22" s="37"/>
+      <c r="L22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q22" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="R22" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="S22" s="22"/>
+      <c r="T22" s="41"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I23" s="37"/>
+      <c r="L23" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="41"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>16</v>
       </c>
@@ -909,22 +1267,85 @@
       <c r="H24" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I24" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+      <c r="I24" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="41"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="39"/>
+      <c r="L25" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="P25" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q25" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R25" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="S25" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="T25" s="38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="L26" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="M26" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="N26" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="O26" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="P26" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q26" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="R26" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="S26" s="33"/>
+      <c r="T26" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
